--- a/Algo_DS/track.xlsx
+++ b/Algo_DS/track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravisankar/Documents/Algos/Algo_DS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA105A2-963D-9047-8205-90E94C8D38EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9103ACF1-42A0-8F4E-9B1F-EBB89EF1AE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="0" windowWidth="27400" windowHeight="17440" xr2:uid="{F6139027-8A73-9541-BC6B-09DE8AEC2BA2}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Keep track of parent of deepest right node and replace it with given key node and make deepest null</t>
+  </si>
+  <si>
+    <t>Least Common Ancestor</t>
   </si>
 </sst>
 </file>
@@ -126,7 +129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -149,12 +152,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -162,6 +176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CE8088-8C35-1B46-9171-447EA905C68D}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,6 +587,11 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{27EDF323-AD5E-BD47-8E94-B0FC44433FDF}"/>
